--- a/Dio - Excel com IA/Criando Um Organizador de Declaração de Imposto de Renda/Relatório.xlsx
+++ b/Dio - Excel com IA/Criando Um Organizador de Declaração de Imposto de Renda/Relatório.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\2025\1 Cursos\Dio\Santander - Excel com Inteligência Artificial - 2º Semestre\02 - Trabalhando com formulas no Excel\04 Criando Um Organizador de Declaração de Imposto de Renda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\Cursos livres\Dio - Excel com IA\Criando Um Organizador de Declaração de Imposto de Renda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E7641-5231-48D7-8F47-EDA1A5087046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E531C88-9903-43CF-81AA-FA5C03E18159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="0" firstSheet="2" activeTab="2" xr2:uid="{C60F5946-D271-4920-86AD-6BDAC1B99A06}"/>
   </bookViews>
@@ -3724,7 +3724,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Banco inexistente_x000a_" promptTitle="Selecione um banco" prompt="Selecione um banco" xr:uid="{1234ABE5-4D8F-471D-AB7F-C0303EA523FD}">
           <x14:formula1>
             <xm:f>RELAÇÃO_BANCOS!$A$2:$A$51</xm:f>
